--- a/testes-numeros.xlsx
+++ b/testes-numeros.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPOS\Automacao_NodeJs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TELEMATICA\Desktop\REPOS\Automa-o-envio-de-mensagens-com-NODE-JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3BC3C7-7765-44B5-91B0-8BBB61214AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11715" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Select cidades" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,51 +30,2133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>INSCRICAO</t>
-  </si>
-  <si>
-    <t>BENEFICIARIO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>1001000</t>
-  </si>
-  <si>
-    <t>1002002</t>
-  </si>
-  <si>
-    <t>1003200</t>
-  </si>
-  <si>
-    <t>1011800</t>
-  </si>
-  <si>
-    <t>1014800</t>
-  </si>
-  <si>
-    <t>ANDRE FRISENE</t>
-  </si>
-  <si>
-    <t>MARCELO MARTINHO</t>
-  </si>
-  <si>
-    <t>LETICIA COSTA</t>
-  </si>
-  <si>
-    <t>CAMILA MENESES</t>
-  </si>
-  <si>
-    <t>FREITAS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="707">
+  <si>
+    <t>1135932060</t>
+  </si>
+  <si>
+    <t>1435800</t>
+  </si>
+  <si>
+    <t>JOSE DE SOUZA RIBEIRO FILHO</t>
+  </si>
+  <si>
+    <t>11998929550</t>
+  </si>
+  <si>
+    <t>1435900</t>
+  </si>
+  <si>
+    <t>JUVENAL CORDEIRO VAZ</t>
+  </si>
+  <si>
+    <t>11982765563</t>
+  </si>
+  <si>
+    <t>1438200</t>
+  </si>
+  <si>
+    <t>LEONILDE APARECIDA PORTA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>11953333374</t>
+  </si>
+  <si>
+    <t>1440300</t>
+  </si>
+  <si>
+    <t>ANA BENEDITA RODRIGUES BIO</t>
+  </si>
+  <si>
+    <t>11996690946</t>
+  </si>
+  <si>
+    <t>1441401</t>
+  </si>
+  <si>
+    <t>ALICE MARIA PATERNESI</t>
+  </si>
+  <si>
+    <t>11972832039</t>
+  </si>
+  <si>
+    <t>1442000</t>
+  </si>
+  <si>
+    <t>ADEMIR FRANCISCO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>11940195522</t>
+  </si>
+  <si>
+    <t>1445900</t>
+  </si>
+  <si>
+    <t>FRANCISCO GORGONHO DE FARIAS</t>
+  </si>
+  <si>
+    <t>11964210335</t>
+  </si>
+  <si>
+    <t>1446100</t>
+  </si>
+  <si>
+    <t>MIGUEL MARTIN</t>
+  </si>
+  <si>
+    <t>11976009544</t>
+  </si>
+  <si>
+    <t>1446901</t>
+  </si>
+  <si>
+    <t>RONALD SERGIO CORREA PINTO</t>
+  </si>
+  <si>
+    <t>11977107269</t>
+  </si>
+  <si>
+    <t>1448700</t>
+  </si>
+  <si>
+    <t>THESEO DARCY BUENO DE TOLEDO</t>
+  </si>
+  <si>
+    <t>11941400433</t>
+  </si>
+  <si>
+    <t>1449700</t>
+  </si>
+  <si>
+    <t>LAERCIO PROENCA</t>
+  </si>
+  <si>
+    <t>11996441033</t>
+  </si>
+  <si>
+    <t>1449801</t>
+  </si>
+  <si>
+    <t>VINICIUS VASCONCELOS RAMOS</t>
+  </si>
+  <si>
+    <t>11947411363</t>
+  </si>
+  <si>
+    <t>1449900</t>
+  </si>
+  <si>
+    <t>SEBASTIAO APARECIDO PINHEIRO</t>
+  </si>
+  <si>
+    <t>11980741161</t>
+  </si>
+  <si>
+    <t>1450102</t>
+  </si>
+  <si>
+    <t>BIANCA PRAZERES DE ANDRADE MENDES</t>
+  </si>
+  <si>
+    <t>11971253735</t>
+  </si>
+  <si>
+    <t>1452101</t>
+  </si>
+  <si>
+    <t>MARIA ODETE SANTOS PINFILDI</t>
+  </si>
+  <si>
+    <t>11950301948</t>
+  </si>
+  <si>
+    <t>1452800</t>
+  </si>
+  <si>
+    <t>IVANY BAPTISTA DE SISTO</t>
+  </si>
+  <si>
+    <t>11911780716</t>
+  </si>
+  <si>
+    <t>1453100</t>
+  </si>
+  <si>
+    <t>ANTONIO FIUZA PINTO</t>
+  </si>
+  <si>
+    <t>1126682703</t>
+  </si>
+  <si>
+    <t>1454500</t>
+  </si>
+  <si>
+    <t>BENEDITO ALBANO PASCOAL FILHO</t>
+  </si>
+  <si>
+    <t>11994504456</t>
+  </si>
+  <si>
+    <t>1455600</t>
+  </si>
+  <si>
+    <t>DORIVAL TIMOTEO LEITE</t>
+  </si>
+  <si>
+    <t>11991267764</t>
+  </si>
+  <si>
+    <t>1456100</t>
+  </si>
+  <si>
+    <t>GEILSON FERNANDES</t>
+  </si>
+  <si>
+    <t>11996368926</t>
+  </si>
+  <si>
+    <t>1457101</t>
+  </si>
+  <si>
+    <t>EVA DE LOURDES FAGUNDES</t>
+  </si>
+  <si>
+    <t>11982144118</t>
+  </si>
+  <si>
+    <t>1458400</t>
+  </si>
+  <si>
+    <t>ROBERTO AUGUSTO VASQUES</t>
+  </si>
+  <si>
+    <t>11993745733</t>
+  </si>
+  <si>
+    <t>1458600</t>
+  </si>
+  <si>
+    <t>NEWTON ROCHA</t>
+  </si>
+  <si>
+    <t>11999408924</t>
+  </si>
+  <si>
+    <t>1459000</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO CAETANO DE PAIVA</t>
+  </si>
+  <si>
+    <t>11994485461</t>
+  </si>
+  <si>
+    <t>1459600</t>
+  </si>
+  <si>
+    <t>CARLINDO GARCIA</t>
+  </si>
+  <si>
+    <t>11948068919</t>
+  </si>
+  <si>
+    <t>1460300</t>
+  </si>
+  <si>
+    <t>JAIME TENORIO CAVALCANTI</t>
+  </si>
+  <si>
+    <t>11992290924</t>
+  </si>
+  <si>
+    <t>1461600</t>
+  </si>
+  <si>
+    <t>MARLY CONCEICAO CALDERARI</t>
+  </si>
+  <si>
+    <t>11992418486</t>
+  </si>
+  <si>
+    <t>1461900</t>
+  </si>
+  <si>
+    <t>JAIME DE OLIVEIRA SUDRE</t>
+  </si>
+  <si>
+    <t>11991653575</t>
+  </si>
+  <si>
+    <t>1463300</t>
+  </si>
+  <si>
+    <t>ANTONIO LOPES NEGRETTI</t>
+  </si>
+  <si>
+    <t>11976220984</t>
+  </si>
+  <si>
+    <t>1469000</t>
+  </si>
+  <si>
+    <t>WILSON FERNANDES DUARTE</t>
+  </si>
+  <si>
+    <t>11982821803</t>
+  </si>
+  <si>
+    <t>1470700</t>
+  </si>
+  <si>
+    <t>EUNICE HELENA DE OLIVEIRA ANDRADE SILVA</t>
+  </si>
+  <si>
+    <t>11993354076</t>
+  </si>
+  <si>
+    <t>1471100</t>
+  </si>
+  <si>
+    <t>ALEXANDRA VILELA PACANARO</t>
+  </si>
+  <si>
+    <t>11981789144</t>
+  </si>
+  <si>
+    <t>1471300</t>
+  </si>
+  <si>
+    <t>LUIZ ANTONIO ADOLPHO</t>
+  </si>
+  <si>
+    <t>11978283138</t>
+  </si>
+  <si>
+    <t>1472400</t>
+  </si>
+  <si>
+    <t>LEONARDO ALQUIMIN DIAS</t>
+  </si>
+  <si>
+    <t>11941917303</t>
+  </si>
+  <si>
+    <t>1472600</t>
+  </si>
+  <si>
+    <t>LUCIANO BONATELLI BISPO</t>
+  </si>
+  <si>
+    <t>11989021142</t>
+  </si>
+  <si>
+    <t>1474501</t>
+  </si>
+  <si>
+    <t>AMELIA DE FATIMA SALVADOR BELMONTE</t>
+  </si>
+  <si>
+    <t>11964547299</t>
+  </si>
+  <si>
+    <t>1474700</t>
+  </si>
+  <si>
+    <t>MIRIAM DOS ANJOS CASTANHEIRA</t>
+  </si>
+  <si>
+    <t>11962237775</t>
+  </si>
+  <si>
+    <t>1474800</t>
+  </si>
+  <si>
+    <t>WALTER DE JESUS ABILIO</t>
+  </si>
+  <si>
+    <t>11495034494</t>
+  </si>
+  <si>
+    <t>1478500</t>
+  </si>
+  <si>
+    <t>DAVID MENDES MARQUES DE MELO</t>
+  </si>
+  <si>
+    <t>11981592002</t>
+  </si>
+  <si>
+    <t>1479401</t>
+  </si>
+  <si>
+    <t>MARIA LABATE HERRERO LOPES</t>
+  </si>
+  <si>
+    <t>11963916519</t>
+  </si>
+  <si>
+    <t>1481500</t>
+  </si>
+  <si>
+    <t>CAROLLINE SOARES CRUZ</t>
+  </si>
+  <si>
+    <t>11963892430</t>
+  </si>
+  <si>
+    <t>1485701</t>
+  </si>
+  <si>
+    <t>MARIA DE LOURDES JOSE TESSITORE</t>
+  </si>
+  <si>
+    <t>11999215333</t>
+  </si>
+  <si>
+    <t>1489900</t>
+  </si>
+  <si>
+    <t>TERESA CRISTINA GARCIA BARTULIHE</t>
+  </si>
+  <si>
+    <t>11994704966</t>
+  </si>
+  <si>
+    <t>1491300</t>
+  </si>
+  <si>
+    <t>JOSE FERNANDES DE MEDEIROS FILHO</t>
+  </si>
+  <si>
+    <t>11998119622</t>
+  </si>
+  <si>
+    <t>1491900</t>
+  </si>
+  <si>
+    <t>EPIPHANIO SOARES DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>11982861255</t>
+  </si>
+  <si>
+    <t>1493200</t>
+  </si>
+  <si>
+    <t>NELSON HAYASHI</t>
+  </si>
+  <si>
+    <t>11981356755</t>
+  </si>
+  <si>
+    <t>1494700</t>
+  </si>
+  <si>
+    <t>JOSE ROGERIO CARDOSO</t>
+  </si>
+  <si>
+    <t>11999869462</t>
+  </si>
+  <si>
+    <t>1497900</t>
+  </si>
+  <si>
+    <t>WALTER GOUVEIA</t>
+  </si>
+  <si>
+    <t>11962625456</t>
+  </si>
+  <si>
+    <t>1498000</t>
+  </si>
+  <si>
+    <t>JANE FECH</t>
+  </si>
+  <si>
+    <t>11995571812</t>
+  </si>
+  <si>
+    <t>1498900</t>
+  </si>
+  <si>
+    <t>ISRAEL DE GOES JUNIOR</t>
+  </si>
+  <si>
+    <t>11992209022</t>
+  </si>
+  <si>
+    <t>1499300</t>
+  </si>
+  <si>
+    <t>ROGERIO SOARES BRENTAN</t>
+  </si>
+  <si>
+    <t>11989743053</t>
+  </si>
+  <si>
+    <t>1500100</t>
+  </si>
+  <si>
+    <t>WALTER MACEDO</t>
+  </si>
+  <si>
+    <t>11996986793</t>
+  </si>
+  <si>
+    <t>1500400</t>
+  </si>
+  <si>
+    <t>AUREA APARECIDA GOMES ROCHA</t>
+  </si>
+  <si>
+    <t>19992157963</t>
+  </si>
+  <si>
+    <t>1501400</t>
+  </si>
+  <si>
+    <t>CAIO FIATIKOSKI CANGERANA</t>
+  </si>
+  <si>
+    <t>11998959443</t>
+  </si>
+  <si>
+    <t>1501800</t>
+  </si>
+  <si>
+    <t>VALTER PEREIRA ALVES</t>
+  </si>
+  <si>
+    <t>1139367575</t>
+  </si>
+  <si>
+    <t>1503700</t>
+  </si>
+  <si>
+    <t>JUVENAL PINHEIRO DE JESUS SILVA</t>
+  </si>
+  <si>
+    <t>11998400419</t>
+  </si>
+  <si>
+    <t>1507100</t>
+  </si>
+  <si>
+    <t>PEDRO GONCALVES DE FARIAS</t>
+  </si>
+  <si>
+    <t>11940041024</t>
+  </si>
+  <si>
+    <t>1507900</t>
+  </si>
+  <si>
+    <t>TANIA DE OLIVEIRA RODRIGUES</t>
+  </si>
+  <si>
+    <t>11989294470</t>
+  </si>
+  <si>
+    <t>1508400</t>
+  </si>
+  <si>
+    <t>LUCIANO DA SILVA SOUSA</t>
+  </si>
+  <si>
+    <t>11981894017</t>
+  </si>
+  <si>
+    <t>1513900</t>
+  </si>
+  <si>
+    <t>ROBERTA REGINA BATISTA DA ROCHA</t>
+  </si>
+  <si>
+    <t>11940152243</t>
+  </si>
+  <si>
+    <t>1515500</t>
+  </si>
+  <si>
+    <t>RAFAEL BULGARI BORGES</t>
+  </si>
+  <si>
+    <t>11996224066</t>
+  </si>
+  <si>
+    <t>1516000</t>
+  </si>
+  <si>
+    <t>MITUKO SHIRASAKA</t>
+  </si>
+  <si>
+    <t>11995540757</t>
+  </si>
+  <si>
+    <t>1516100</t>
+  </si>
+  <si>
+    <t>THIAGO ROMAO BARBIERI</t>
+  </si>
+  <si>
+    <t>11998186058</t>
+  </si>
+  <si>
+    <t>1519601</t>
+  </si>
+  <si>
+    <t>LUANA LUNA NOVAIS</t>
+  </si>
+  <si>
+    <t>11979516462</t>
+  </si>
+  <si>
+    <t>1520601</t>
+  </si>
+  <si>
+    <t>GABRIEL MANFREDO BIANCHINI</t>
+  </si>
+  <si>
+    <t>11983309984</t>
+  </si>
+  <si>
+    <t>1525800</t>
+  </si>
+  <si>
+    <t>LUCIA HELENA MACEDO</t>
+  </si>
+  <si>
+    <t>1526000</t>
+  </si>
+  <si>
+    <t>CASSIO VIEIRA BATISTA</t>
+  </si>
+  <si>
+    <t>11998742306</t>
+  </si>
+  <si>
+    <t>1529600</t>
+  </si>
+  <si>
+    <t>VERISSIMO SOARES DE OLIVERIA FILHO</t>
+  </si>
+  <si>
+    <t>11947354128</t>
+  </si>
+  <si>
+    <t>1530400</t>
+  </si>
+  <si>
+    <t>GIULIA APARECIDA PEREIRA</t>
+  </si>
+  <si>
+    <t>11971675818</t>
+  </si>
+  <si>
+    <t>1531300</t>
+  </si>
+  <si>
+    <t>PATRICIA DE MOURA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>11971364227</t>
+  </si>
+  <si>
+    <t>1532800</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO PEREIRA CARNEIRO</t>
+  </si>
+  <si>
+    <t>11964682771</t>
+  </si>
+  <si>
+    <t>1532900</t>
+  </si>
+  <si>
+    <t>ANGELICA NEVES SCHULZ</t>
+  </si>
+  <si>
+    <t>11987513648</t>
+  </si>
+  <si>
+    <t>1533700</t>
+  </si>
+  <si>
+    <t>PAULA BRISOLLA BALDY MARTINS</t>
+  </si>
+  <si>
+    <t>11976089682</t>
+  </si>
+  <si>
+    <t>1534500</t>
+  </si>
+  <si>
+    <t>SUELI DE OLIVEIRA HORTA</t>
+  </si>
+  <si>
+    <t>11945110535</t>
+  </si>
+  <si>
+    <t>1535100</t>
+  </si>
+  <si>
+    <t>HOSANA DE PAULA PESSINI</t>
+  </si>
+  <si>
+    <t>11989946513</t>
+  </si>
+  <si>
+    <t>1535401</t>
+  </si>
+  <si>
+    <t>ELIANE MARIA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>11991037338</t>
+  </si>
+  <si>
+    <t>1536900</t>
+  </si>
+  <si>
+    <t>SUELY APARECIDA FERNANDES DA SILVA</t>
+  </si>
+  <si>
+    <t>11960898938</t>
+  </si>
+  <si>
+    <t>1539301</t>
+  </si>
+  <si>
+    <t>GAEL RINALDI EVANGELISTA</t>
+  </si>
+  <si>
+    <t>11997769414</t>
+  </si>
+  <si>
+    <t>1539600</t>
+  </si>
+  <si>
+    <t>BRUNNO RENATO DE SOUZA RIVERO</t>
+  </si>
+  <si>
+    <t>11962757351</t>
+  </si>
+  <si>
+    <t>1540101</t>
+  </si>
+  <si>
+    <t>ARTHUR DAL MEDICO BARRETO</t>
+  </si>
+  <si>
+    <t>11989511522</t>
+  </si>
+  <si>
+    <t>1540901</t>
+  </si>
+  <si>
+    <t>MARIA DE FATIMA BORGES DA COSTA GONCALVES</t>
+  </si>
+  <si>
+    <t>11975029656</t>
+  </si>
+  <si>
+    <t>1543700</t>
+  </si>
+  <si>
+    <t>EDENILSON ACCARINI</t>
+  </si>
+  <si>
+    <t>11999351221</t>
+  </si>
+  <si>
+    <t>1544001</t>
+  </si>
+  <si>
+    <t>NORBERT KORITAR</t>
+  </si>
+  <si>
+    <t>11981815472</t>
+  </si>
+  <si>
+    <t>1544401</t>
+  </si>
+  <si>
+    <t>SONIA REGINA CALEGARI BERBEL</t>
+  </si>
+  <si>
+    <t>11971479650</t>
+  </si>
+  <si>
+    <t>1545100</t>
+  </si>
+  <si>
+    <t>DAYANA INGRID SOUZA LUZ</t>
+  </si>
+  <si>
+    <t>11982255600</t>
+  </si>
+  <si>
+    <t>1546500</t>
+  </si>
+  <si>
+    <t>MELL OLIVEIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>11941660756</t>
+  </si>
+  <si>
+    <t>1550600</t>
+  </si>
+  <si>
+    <t>KATIA FERNANDA FRIGOLI</t>
+  </si>
+  <si>
+    <t>11999062465</t>
+  </si>
+  <si>
+    <t>1551300</t>
+  </si>
+  <si>
+    <t>NELSON ELIAS DE SOUZA</t>
+  </si>
+  <si>
+    <t>11976512191</t>
+  </si>
+  <si>
+    <t>1551800</t>
+  </si>
+  <si>
+    <t>ALESSANDRO MARTINS LANDRE DIOGO</t>
+  </si>
+  <si>
+    <t>11985337888</t>
+  </si>
+  <si>
+    <t>1552800</t>
+  </si>
+  <si>
+    <t>GLAUCIA BARRETO</t>
+  </si>
+  <si>
+    <t>11994693133</t>
+  </si>
+  <si>
+    <t>1555700</t>
+  </si>
+  <si>
+    <t>EDUARDO AKAMINE</t>
+  </si>
+  <si>
+    <t>11984610163</t>
+  </si>
+  <si>
+    <t>1558900</t>
+  </si>
+  <si>
+    <t>RICARDO COUTO SENEDEZI</t>
+  </si>
+  <si>
+    <t>11967615902</t>
+  </si>
+  <si>
+    <t>1560000</t>
+  </si>
+  <si>
+    <t>ADRIANO SORENSEN CAMILO</t>
+  </si>
+  <si>
+    <t>11992610635</t>
+  </si>
+  <si>
+    <t>1560600</t>
+  </si>
+  <si>
+    <t>GERALDO PIRES DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>11932187788</t>
+  </si>
+  <si>
+    <t>1560900</t>
+  </si>
+  <si>
+    <t>ZAIRA JEANETE DA SILVA FERNANDES</t>
+  </si>
+  <si>
+    <t>11943254466</t>
+  </si>
+  <si>
+    <t>1562200</t>
+  </si>
+  <si>
+    <t>LUCAS DE SIQUEIRA JOLY</t>
+  </si>
+  <si>
+    <t>11953505869</t>
+  </si>
+  <si>
+    <t>1564601</t>
+  </si>
+  <si>
+    <t>ANNA ZAMPRONIO DA SILVA</t>
+  </si>
+  <si>
+    <t>11984146213</t>
+  </si>
+  <si>
+    <t>1565800</t>
+  </si>
+  <si>
+    <t>FLAVIO CORREA MORELLI</t>
+  </si>
+  <si>
+    <t>11982565028</t>
+  </si>
+  <si>
+    <t>1568000</t>
+  </si>
+  <si>
+    <t>GILBERTO FERNANDES</t>
+  </si>
+  <si>
+    <t>11971520968</t>
+  </si>
+  <si>
+    <t>1569200</t>
+  </si>
+  <si>
+    <t>DOUGLAS SILVA BIZERRA</t>
+  </si>
+  <si>
+    <t>11975850532</t>
+  </si>
+  <si>
+    <t>1571400</t>
+  </si>
+  <si>
+    <t>ZENIRA LEITE DE ALCANTARA</t>
+  </si>
+  <si>
+    <t>11999632594</t>
+  </si>
+  <si>
+    <t>1573400</t>
+  </si>
+  <si>
+    <t>TATIANE ARAUJO RONDINI</t>
+  </si>
+  <si>
+    <t>11993222590</t>
+  </si>
+  <si>
+    <t>1576400</t>
+  </si>
+  <si>
+    <t>DIVA DE SOUZA CARVALHO</t>
+  </si>
+  <si>
+    <t>11995530345</t>
+  </si>
+  <si>
+    <t>1576800</t>
+  </si>
+  <si>
+    <t>ELIANA DE DEUS CARVALHO</t>
+  </si>
+  <si>
+    <t>11995064782</t>
+  </si>
+  <si>
+    <t>1577200</t>
+  </si>
+  <si>
+    <t>INES GARCIA Y GARCIA</t>
+  </si>
+  <si>
+    <t>11971500109</t>
+  </si>
+  <si>
+    <t>1578600</t>
+  </si>
+  <si>
+    <t>DENISE ANGELICA VALENZI</t>
+  </si>
+  <si>
+    <t>11999205893</t>
+  </si>
+  <si>
+    <t>1578601</t>
+  </si>
+  <si>
+    <t>FLAVIA LUIZA VALENZI LEITE</t>
+  </si>
+  <si>
+    <t>11996150068</t>
+  </si>
+  <si>
+    <t>1578900</t>
+  </si>
+  <si>
+    <t>MIRNA PALLADINO</t>
+  </si>
+  <si>
+    <t>11991716170</t>
+  </si>
+  <si>
+    <t>1582500</t>
+  </si>
+  <si>
+    <t>TARLEY HENRIQUE DANTAS PRAVADELLI</t>
+  </si>
+  <si>
+    <t>11934488522</t>
+  </si>
+  <si>
+    <t>1586800</t>
+  </si>
+  <si>
+    <t>DENISE ABDALLA SANCHEZ</t>
+  </si>
+  <si>
+    <t>1129571240</t>
+  </si>
+  <si>
+    <t>1587500</t>
+  </si>
+  <si>
+    <t>NATALIA CORDEIRO DA SILVA DE MORAES</t>
+  </si>
+  <si>
+    <t>11967206852</t>
+  </si>
+  <si>
+    <t>1589500</t>
+  </si>
+  <si>
+    <t>LUCAS DE LIMA VIEIRA</t>
+  </si>
+  <si>
+    <t>11984686783</t>
+  </si>
+  <si>
+    <t>1592600</t>
+  </si>
+  <si>
+    <t>ELAINE APARECIDA LOURENCO</t>
+  </si>
+  <si>
+    <t>11994912211</t>
+  </si>
+  <si>
+    <t>1593500</t>
+  </si>
+  <si>
+    <t>JAQUELINE APARECIDA DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>11993063884</t>
+  </si>
+  <si>
+    <t>1595400</t>
+  </si>
+  <si>
+    <t>EURIDICE MARIA DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>11986904578</t>
+  </si>
+  <si>
+    <t>1605400</t>
+  </si>
+  <si>
+    <t>LUAN GABRIEL DE OLIVEIRA MIRON BORSATTO</t>
+  </si>
+  <si>
+    <t>11995519717</t>
+  </si>
+  <si>
+    <t>1606100</t>
+  </si>
+  <si>
+    <t>MARISA SORDILI ELIAS</t>
+  </si>
+  <si>
+    <t>11974729351</t>
+  </si>
+  <si>
+    <t>1611900</t>
+  </si>
+  <si>
+    <t>KIZZY VIANA DE JESUS</t>
+  </si>
+  <si>
+    <t>11953497097</t>
+  </si>
+  <si>
+    <t>1612800</t>
+  </si>
+  <si>
+    <t>ANTONIO CARLOS VIOLA</t>
+  </si>
+  <si>
+    <t>1197442151</t>
+  </si>
+  <si>
+    <t>1615000</t>
+  </si>
+  <si>
+    <t>REGINA FELIX ARANHA</t>
+  </si>
+  <si>
+    <t>11985202662</t>
+  </si>
+  <si>
+    <t>1618100</t>
+  </si>
+  <si>
+    <t>DEMETRIUS CORREA NUNES</t>
+  </si>
+  <si>
+    <t>11991575042</t>
+  </si>
+  <si>
+    <t>1622000</t>
+  </si>
+  <si>
+    <t>ROSINEI ROSA</t>
+  </si>
+  <si>
+    <t>11982642292</t>
+  </si>
+  <si>
+    <t>1623100</t>
+  </si>
+  <si>
+    <t>MARA LUCIA MARINOVIC DORO</t>
+  </si>
+  <si>
+    <t>11943074611</t>
+  </si>
+  <si>
+    <t>1623500</t>
+  </si>
+  <si>
+    <t>MARCELO SILVA SALLES</t>
+  </si>
+  <si>
+    <t>11975772156</t>
+  </si>
+  <si>
+    <t>1624700</t>
+  </si>
+  <si>
+    <t>ANDREA ALVES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>11953692799</t>
+  </si>
+  <si>
+    <t>1625500</t>
+  </si>
+  <si>
+    <t>MARCIA PEREIRA DE SOUZA</t>
+  </si>
+  <si>
+    <t>11943495976</t>
+  </si>
+  <si>
+    <t>1627400</t>
+  </si>
+  <si>
+    <t>NILZA VAZ BOMFIM</t>
+  </si>
+  <si>
+    <t>11991901446</t>
+  </si>
+  <si>
+    <t>1629200</t>
+  </si>
+  <si>
+    <t>ROMILSA PEREIRA DE CASTRO</t>
+  </si>
+  <si>
+    <t>11970475582</t>
+  </si>
+  <si>
+    <t>1629800</t>
+  </si>
+  <si>
+    <t>CIBELE ALVES LOPES</t>
+  </si>
+  <si>
+    <t>1635900</t>
+  </si>
+  <si>
+    <t>VANESSA APARECIDA SANCHES BOSCOLO</t>
+  </si>
+  <si>
+    <t>11991005035</t>
+  </si>
+  <si>
+    <t>1640100</t>
+  </si>
+  <si>
+    <t>IRVINE MARIA DA CUNHA PEREIRA</t>
+  </si>
+  <si>
+    <t>11994339420</t>
+  </si>
+  <si>
+    <t>1641400</t>
+  </si>
+  <si>
+    <t>WALKYRIA PEREIRA MACHADO</t>
+  </si>
+  <si>
+    <t>11972478450</t>
+  </si>
+  <si>
+    <t>1642200</t>
+  </si>
+  <si>
+    <t>ADRIANA CALESSO PEREIRA</t>
+  </si>
+  <si>
+    <t>11985933049</t>
+  </si>
+  <si>
+    <t>1645300</t>
+  </si>
+  <si>
+    <t>CLAUDIA CRISTINA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>11972447347</t>
+  </si>
+  <si>
+    <t>1647400</t>
+  </si>
+  <si>
+    <t>PATRICIA PONCE DE CAMARGO</t>
+  </si>
+  <si>
+    <t>11985616707</t>
+  </si>
+  <si>
+    <t>1652300</t>
+  </si>
+  <si>
+    <t>PATRICIA ALVES FEITOSA</t>
+  </si>
+  <si>
+    <t>11998186450</t>
+  </si>
+  <si>
+    <t>1657800</t>
+  </si>
+  <si>
+    <t>ABGAIL PUERTA HERNANDES TAVARES</t>
+  </si>
+  <si>
+    <t>119891010</t>
+  </si>
+  <si>
+    <t>1658100</t>
+  </si>
+  <si>
+    <t>NADIA SILVA CRISOSTOMO</t>
+  </si>
+  <si>
+    <t>11932350925</t>
+  </si>
+  <si>
+    <t>1659300</t>
+  </si>
+  <si>
+    <t>GRACIA DI MADEO BESSA</t>
+  </si>
+  <si>
+    <t>11976401131</t>
+  </si>
+  <si>
+    <t>1659700</t>
+  </si>
+  <si>
+    <t>BIANCA RIBEIRO DE PAULA</t>
+  </si>
+  <si>
+    <t>11991772907</t>
+  </si>
+  <si>
+    <t>1660200</t>
+  </si>
+  <si>
+    <t>VANDA DE OLIVEIRA CONTIERO</t>
+  </si>
+  <si>
+    <t>1129105937</t>
+  </si>
+  <si>
+    <t>1660300</t>
+  </si>
+  <si>
+    <t>JAIRO ZAPATA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>11974162078</t>
+  </si>
+  <si>
+    <t>1661600</t>
+  </si>
+  <si>
+    <t>KAREN SILVERIO PANCERA NASCIMENTO</t>
+  </si>
+  <si>
+    <t>11981644003</t>
+  </si>
+  <si>
+    <t>1664000</t>
+  </si>
+  <si>
+    <t>BENEDITO MIGUEL</t>
+  </si>
+  <si>
+    <t>11947748189</t>
+  </si>
+  <si>
+    <t>1666200</t>
+  </si>
+  <si>
+    <t>DAFNE VIRGINIA MEDEIROS SOARES</t>
+  </si>
+  <si>
+    <t>11991417047</t>
+  </si>
+  <si>
+    <t>1668000</t>
+  </si>
+  <si>
+    <t>MARCELA DE OLIVEIRA BARBOSA ZAVALA</t>
+  </si>
+  <si>
+    <t>11995591920</t>
+  </si>
+  <si>
+    <t>1669500</t>
+  </si>
+  <si>
+    <t>RENATA DOS SANTOS NEVES</t>
+  </si>
+  <si>
+    <t>11996702710</t>
+  </si>
+  <si>
+    <t>1670100</t>
+  </si>
+  <si>
+    <t>DEBERLI DAURI ALVES</t>
+  </si>
+  <si>
+    <t>11941742023</t>
+  </si>
+  <si>
+    <t>1673300</t>
+  </si>
+  <si>
+    <t>ROSEANE FRANCISCO FERREIRA</t>
+  </si>
+  <si>
+    <t>11948767692</t>
+  </si>
+  <si>
+    <t>1673700</t>
+  </si>
+  <si>
+    <t>FERNANDA SANTANA</t>
+  </si>
+  <si>
+    <t>11967303720</t>
+  </si>
+  <si>
+    <t>1675400</t>
+  </si>
+  <si>
+    <t>VANESSA CRISTINA PRADO SA</t>
+  </si>
+  <si>
+    <t>11965937539</t>
+  </si>
+  <si>
+    <t>1675600</t>
+  </si>
+  <si>
+    <t>KELY DE CASSIA VITIELLO SARTORI</t>
+  </si>
+  <si>
+    <t>11986877086</t>
+  </si>
+  <si>
+    <t>1675700</t>
+  </si>
+  <si>
+    <t>CRISTIANE APARECIDA SOUZA GONDIM FRANCO</t>
+  </si>
+  <si>
+    <t>11995088988</t>
+  </si>
+  <si>
+    <t>1677200</t>
+  </si>
+  <si>
+    <t>JOSE LUIS EVANGELISTA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>11986758794</t>
+  </si>
+  <si>
+    <t>1679700</t>
+  </si>
+  <si>
+    <t>DEBORA PAOLA DA SILVA</t>
+  </si>
+  <si>
+    <t>11980930131</t>
+  </si>
+  <si>
+    <t>1679800</t>
+  </si>
+  <si>
+    <t>JACIRA VIEIRA DE MELO</t>
+  </si>
+  <si>
+    <t>11992123691</t>
+  </si>
+  <si>
+    <t>1680900</t>
+  </si>
+  <si>
+    <t>DANILO ROCHA PEREIRA</t>
+  </si>
+  <si>
+    <t>1122122734</t>
+  </si>
+  <si>
+    <t>1681900</t>
+  </si>
+  <si>
+    <t>JUREMA APARECIDA CAVALCANTE</t>
+  </si>
+  <si>
+    <t>11961247253</t>
+  </si>
+  <si>
+    <t>1682400</t>
+  </si>
+  <si>
+    <t>MARIA SOCORRO DE SOUZA RINCO</t>
+  </si>
+  <si>
+    <t>11976044133</t>
+  </si>
+  <si>
+    <t>1687400</t>
+  </si>
+  <si>
+    <t>JOSE SILVESTRE VICENTE</t>
+  </si>
+  <si>
+    <t>11996872851</t>
+  </si>
+  <si>
+    <t>1687900</t>
+  </si>
+  <si>
+    <t>SILVIA DEMETRIO VACCARI SANTANA</t>
+  </si>
+  <si>
+    <t>11980257888</t>
+  </si>
+  <si>
+    <t>1688400</t>
+  </si>
+  <si>
+    <t>GUILHERME MEIRELLES BORDON</t>
+  </si>
+  <si>
+    <t>11994219060</t>
+  </si>
+  <si>
+    <t>1688700</t>
+  </si>
+  <si>
+    <t>MARCELO DOUGLAS DE SOUZA</t>
+  </si>
+  <si>
+    <t>11947580433</t>
+  </si>
+  <si>
+    <t>1690900</t>
+  </si>
+  <si>
+    <t>LETYCIA BASTOS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>11930658867</t>
+  </si>
+  <si>
+    <t>1692000</t>
+  </si>
+  <si>
+    <t>ANA PAULA BARBOSA TROVAO</t>
+  </si>
+  <si>
+    <t>11982552858</t>
+  </si>
+  <si>
+    <t>1692600</t>
+  </si>
+  <si>
+    <t>LUCIMARA CASSEMIRO</t>
+  </si>
+  <si>
+    <t>11984548159</t>
+  </si>
+  <si>
+    <t>1692900</t>
+  </si>
+  <si>
+    <t>PRISCILA DE ABREU PIKEL</t>
+  </si>
+  <si>
+    <t>11964331116</t>
+  </si>
+  <si>
+    <t>1693901</t>
+  </si>
+  <si>
+    <t>SOPHIA RICCI PINHEIRO</t>
+  </si>
+  <si>
+    <t>11984126355</t>
+  </si>
+  <si>
+    <t>1694902</t>
+  </si>
+  <si>
+    <t>FERNANDO SOARES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>11976218282</t>
+  </si>
+  <si>
+    <t>1695100</t>
+  </si>
+  <si>
+    <t>PRISCILA GOMES COELHO FRANZAO</t>
+  </si>
+  <si>
+    <t>11980727372</t>
+  </si>
+  <si>
+    <t>1699301</t>
+  </si>
+  <si>
+    <t>NICILEIDE MARIA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>11970407937</t>
+  </si>
+  <si>
+    <t>1701800</t>
+  </si>
+  <si>
+    <t>MARINA PEREIRA GOMES</t>
+  </si>
+  <si>
+    <t>11975500809</t>
+  </si>
+  <si>
+    <t>1703200</t>
+  </si>
+  <si>
+    <t>FAUSTO DOS SANTOS MARTINS</t>
+  </si>
+  <si>
+    <t>11940214360</t>
+  </si>
+  <si>
+    <t>1705800</t>
+  </si>
+  <si>
+    <t>RAFAELLA DE ARAUJO TOBIA</t>
+  </si>
+  <si>
+    <t>11983678047</t>
+  </si>
+  <si>
+    <t>1709000</t>
+  </si>
+  <si>
+    <t>SILVIA REGINA GIMENEZ NUVENS</t>
+  </si>
+  <si>
+    <t>11962453195</t>
+  </si>
+  <si>
+    <t>1711100</t>
+  </si>
+  <si>
+    <t>PATRICIA MORAES BOSSETTO</t>
+  </si>
+  <si>
+    <t>11997974005</t>
+  </si>
+  <si>
+    <t>1713600</t>
+  </si>
+  <si>
+    <t>SOLANGE CARDENA</t>
+  </si>
+  <si>
+    <t>11985487212</t>
+  </si>
+  <si>
+    <t>1717200</t>
+  </si>
+  <si>
+    <t>CATARINA ROSA CRESPO</t>
+  </si>
+  <si>
+    <t>11959914972</t>
+  </si>
+  <si>
+    <t>1718200</t>
+  </si>
+  <si>
+    <t>ISABELLY DARIO DE PAULA MUNIZ</t>
+  </si>
+  <si>
+    <t>11958283848</t>
+  </si>
+  <si>
+    <t>1718500</t>
+  </si>
+  <si>
+    <t>SILVIA MARIA PAIVA MACHADO</t>
+  </si>
+  <si>
+    <t>11948017517</t>
+  </si>
+  <si>
+    <t>1722000</t>
+  </si>
+  <si>
+    <t>PATRICIA CAROLINA SIQUEIRA DE BIAGI</t>
+  </si>
+  <si>
+    <t>11995100205</t>
+  </si>
+  <si>
+    <t>1722100</t>
+  </si>
+  <si>
+    <t>DEBORA AUGUSTA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>11972005980</t>
+  </si>
+  <si>
+    <t>1722200</t>
+  </si>
+  <si>
+    <t>KELLY OLIVEIRA DA SILVA DIAS</t>
+  </si>
+  <si>
+    <t>11956585158</t>
+  </si>
+  <si>
+    <t>1722202</t>
+  </si>
+  <si>
+    <t>MATHEUS OLIVEIRA DOS ANJOS DIAS</t>
+  </si>
+  <si>
+    <t>11947012161</t>
+  </si>
+  <si>
+    <t>1724700</t>
+  </si>
+  <si>
+    <t>APARECIDA CAROLINE DE ARAUJO</t>
+  </si>
+  <si>
+    <t>11941253229</t>
+  </si>
+  <si>
+    <t>1724900</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO DEL CANTAO CRUZ</t>
+  </si>
+  <si>
+    <t>11995999227</t>
+  </si>
+  <si>
+    <t>1726200</t>
+  </si>
+  <si>
+    <t>CARLA PATRICIA FOGACA RODRIGUES</t>
+  </si>
+  <si>
+    <t>11972165520</t>
+  </si>
+  <si>
+    <t>1726900</t>
+  </si>
+  <si>
+    <t>CRISTIANE MARIA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>11980380589</t>
+  </si>
+  <si>
+    <t>1727800</t>
+  </si>
+  <si>
+    <t>DORACI ARAUJO ALVES</t>
+  </si>
+  <si>
+    <t>11973990996</t>
+  </si>
+  <si>
+    <t>1728200</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS DA CRUZ</t>
+  </si>
+  <si>
+    <t>11971275385</t>
+  </si>
+  <si>
+    <t>1735500</t>
+  </si>
+  <si>
+    <t>MARIANA GARCIA SOUZA</t>
+  </si>
+  <si>
+    <t>11998747854</t>
+  </si>
+  <si>
+    <t>1738300</t>
+  </si>
+  <si>
+    <t>JULIANA HOJAS DA SILVA</t>
+  </si>
+  <si>
+    <t>11982010294</t>
+  </si>
+  <si>
+    <t>1738900</t>
+  </si>
+  <si>
+    <t>ELAINE AMATE</t>
+  </si>
+  <si>
+    <t>11978453007</t>
+  </si>
+  <si>
+    <t>1738901</t>
+  </si>
+  <si>
+    <t>JULIANA AMATE INACIO</t>
+  </si>
+  <si>
+    <t>11993508039</t>
+  </si>
+  <si>
+    <t>1739600</t>
+  </si>
+  <si>
+    <t>ALESSANDRO ROQUE MARCAO</t>
+  </si>
+  <si>
+    <t>11997599847</t>
+  </si>
+  <si>
+    <t>1740600</t>
+  </si>
+  <si>
+    <t>LUCAS EXPEDITO MENEZES DE CAMPOS</t>
+  </si>
+  <si>
+    <t>11959154186</t>
+  </si>
+  <si>
+    <t>1741100</t>
+  </si>
+  <si>
+    <t>DOUGLAS GARUTTI</t>
+  </si>
+  <si>
+    <t>11999110353</t>
+  </si>
+  <si>
+    <t>1741700</t>
+  </si>
+  <si>
+    <t>MIGUEL ARCHANJO BARBOSA</t>
+  </si>
+  <si>
+    <t>11947308502</t>
+  </si>
+  <si>
+    <t>1745900</t>
+  </si>
+  <si>
+    <t>LUCIMARA DE PAULA</t>
+  </si>
+  <si>
+    <t>11937702303</t>
+  </si>
+  <si>
+    <t>1746200</t>
+  </si>
+  <si>
+    <t>ERIVALDO JOSE DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>11912686161</t>
+  </si>
+  <si>
+    <t>1747200</t>
+  </si>
+  <si>
+    <t>RENATA DE SOUZA GUIMARAES MONTEIRO</t>
+  </si>
+  <si>
+    <t>11977171557</t>
+  </si>
+  <si>
+    <t>1750700</t>
+  </si>
+  <si>
+    <t>PAULA CRISTINA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>11989371770</t>
+  </si>
+  <si>
+    <t>1751800</t>
+  </si>
+  <si>
+    <t>KAIQUE BARROS RICIOTI</t>
+  </si>
+  <si>
+    <t>11949806611</t>
+  </si>
+  <si>
+    <t>1759000</t>
+  </si>
+  <si>
+    <t>KELLY VITORIA ALVES DE MORAES</t>
+  </si>
+  <si>
+    <t>11997626802</t>
+  </si>
+  <si>
+    <t>1762300</t>
+  </si>
+  <si>
+    <t>ANDREZA NEVES MARIANO DA SILVA TEODORO</t>
+  </si>
+  <si>
+    <t>11982470965</t>
+  </si>
+  <si>
+    <t>1763900</t>
+  </si>
+  <si>
+    <t>LUDIMAR DEMETRIO</t>
+  </si>
+  <si>
+    <t>11945565857</t>
+  </si>
+  <si>
+    <t>1764000</t>
+  </si>
+  <si>
+    <t>JOAO CALDAS</t>
+  </si>
+  <si>
+    <t>11964849428</t>
+  </si>
+  <si>
+    <t>1766600</t>
+  </si>
+  <si>
+    <t>ANTONIO JAUN RODRIGUES</t>
+  </si>
+  <si>
+    <t>11966357898</t>
+  </si>
+  <si>
+    <t>1768900</t>
+  </si>
+  <si>
+    <t>SIDINEYA DE OLIVEIRA MUNIZ</t>
+  </si>
+  <si>
+    <t>11997532827</t>
+  </si>
+  <si>
+    <t>1771200</t>
+  </si>
+  <si>
+    <t>VIVIAN HARUMI OGAWA</t>
+  </si>
+  <si>
+    <t>11982579923</t>
+  </si>
+  <si>
+    <t>1772700</t>
+  </si>
+  <si>
+    <t>CAIRE DE OLIVEIRA BASTIAS</t>
+  </si>
+  <si>
+    <t>11951350843</t>
+  </si>
+  <si>
+    <t>1773800</t>
+  </si>
+  <si>
+    <t>MARCOS ANTONIO DA SILVA</t>
+  </si>
+  <si>
+    <t>11960310607</t>
+  </si>
+  <si>
+    <t>1778000</t>
+  </si>
+  <si>
+    <t>ROGERIO MENDES PASQUINI</t>
+  </si>
+  <si>
+    <t>11988767550</t>
+  </si>
+  <si>
+    <t>1778600</t>
+  </si>
+  <si>
+    <t>VICENTE ANTONIO MARIANO FERRAZ</t>
+  </si>
+  <si>
+    <t>11996410900</t>
+  </si>
+  <si>
+    <t>1778700</t>
+  </si>
+  <si>
+    <t>VITOR DE ANDRADE</t>
+  </si>
+  <si>
+    <t>11963968066</t>
+  </si>
+  <si>
+    <t>1779400</t>
+  </si>
+  <si>
+    <t>PEDRO AFONSO QUINTINO FERNANDES</t>
+  </si>
+  <si>
+    <t>11987987371</t>
+  </si>
+  <si>
+    <t>1784500</t>
+  </si>
+  <si>
+    <t>ANGELA APARECIDA AMARAL SIQUEIRA</t>
+  </si>
+  <si>
+    <t>11986436758</t>
+  </si>
+  <si>
+    <t>1785900</t>
+  </si>
+  <si>
+    <t>SILVIO LUIS LEMES</t>
+  </si>
+  <si>
+    <t>11988080368</t>
+  </si>
+  <si>
+    <t>1788000</t>
+  </si>
+  <si>
+    <t>SHEILA REGINA DOS SANTOS ANDRADE</t>
+  </si>
+  <si>
+    <t>11995493646</t>
+  </si>
+  <si>
+    <t>1788400</t>
+  </si>
+  <si>
+    <t>CLAUDIO DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>11940026995</t>
+  </si>
+  <si>
+    <t>1788600</t>
+  </si>
+  <si>
+    <t>TANIA CARVALHO DE CASTILHO</t>
+  </si>
+  <si>
+    <t>11932328551</t>
+  </si>
+  <si>
+    <t>1790400</t>
+  </si>
+  <si>
+    <t>ANDREA SIMOES LOPES</t>
+  </si>
+  <si>
+    <t>11947436214</t>
+  </si>
+  <si>
+    <t>1791500</t>
+  </si>
+  <si>
+    <t>SIDNEI LEANDRO</t>
+  </si>
+  <si>
+    <t>11995657409</t>
+  </si>
+  <si>
+    <t>1793400</t>
+  </si>
+  <si>
+    <t>EDUARDO NUNES ELIAS</t>
+  </si>
+  <si>
+    <t>11947241586</t>
+  </si>
+  <si>
+    <t>1793401</t>
+  </si>
+  <si>
+    <t>SONIA MARIA DE OLIVEIRA ELIAS</t>
+  </si>
+  <si>
+    <t>11997907562</t>
+  </si>
+  <si>
+    <t>1793800</t>
+  </si>
+  <si>
+    <t>BIANCA CRISTINA GALRAO DE FRANCA BENJAMIM</t>
+  </si>
+  <si>
+    <t>11982536410</t>
+  </si>
+  <si>
+    <t>1793900</t>
+  </si>
+  <si>
+    <t>ALEXANDRE DOS SANTOS</t>
+  </si>
+  <si>
+    <t>11947795611</t>
+  </si>
+  <si>
+    <t>1798800</t>
+  </si>
+  <si>
+    <t>LARISSA AYRA DE JESUS KAVAMURA</t>
+  </si>
+  <si>
+    <t>11982124567</t>
+  </si>
+  <si>
+    <t>1800100</t>
+  </si>
+  <si>
+    <t>PEDRO HENRIQUE PASSETTI</t>
+  </si>
+  <si>
+    <t>11999590069</t>
+  </si>
+  <si>
+    <t>1801200</t>
+  </si>
+  <si>
+    <t>DIRACI DA SILVA ANDRADE</t>
+  </si>
+  <si>
+    <t>11945971763</t>
+  </si>
+  <si>
+    <t>1802400</t>
+  </si>
+  <si>
+    <t>LUCAS FABIANO E SOUZA</t>
+  </si>
+  <si>
+    <t>11999789606</t>
+  </si>
+  <si>
+    <t>1802600</t>
+  </si>
+  <si>
+    <t>JOSE VINICIUS SENA CONCEICAO</t>
+  </si>
+  <si>
+    <t>11948045522</t>
+  </si>
+  <si>
+    <t>1806900</t>
+  </si>
+  <si>
+    <t>ALEX SANDRO SANTOS VENANCIO</t>
+  </si>
+  <si>
+    <t>11993312572</t>
+  </si>
+  <si>
+    <t>1807200</t>
+  </si>
+  <si>
+    <t>REGINA HELENA ARAUJO GUIMARAES ROSA</t>
+  </si>
+  <si>
+    <t>12981849185</t>
+  </si>
+  <si>
+    <t>1807600</t>
+  </si>
+  <si>
+    <t>LUIZ CARLOS MADEIRA MORILLA</t>
+  </si>
+  <si>
+    <t>11949049606</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>Coluna2</t>
+  </si>
+  <si>
+    <t>Coluna3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -135,8 +2216,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="1"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -154,21 +2233,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{969BB8CC-6D90-4518-82F5-3837DCEA3D16}" name="Tabela1" displayName="Tabela1" ref="A1:C20066" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C20066" xr:uid="{969BB8CC-6D90-4518-82F5-3837DCEA3D16}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C20001" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C20001"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3B1A4541-7AC4-450E-8FA3-55396784D0BE}" name="INSCRICAO"/>
-    <tableColumn id="2" xr3:uid="{36E3F7D8-EA0C-4045-BE32-D08DD12FCB3A}" name="BENEFICIARIO"/>
-    <tableColumn id="3" xr3:uid="{42B2AED6-487F-456E-8A7E-720421E9A76F}" name="CELULAR"/>
+    <tableColumn id="1" name="Coluna1"/>
+    <tableColumn id="2" name="Coluna2"/>
+    <tableColumn id="3" name="Coluna3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,9 +2285,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,7 +2322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +2357,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,91 +2530,2622 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>11994518634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>11974992229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
-      </c>
-      <c r="C4">
-        <v>11913151311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>13997261560</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>11996800701</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>282</v>
+      </c>
+      <c r="B96" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>285</v>
+      </c>
+      <c r="B97" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>291</v>
+      </c>
+      <c r="B99" t="s">
+        <v>292</v>
+      </c>
+      <c r="C99" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>294</v>
+      </c>
+      <c r="B100" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>297</v>
+      </c>
+      <c r="B101" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>300</v>
+      </c>
+      <c r="B102" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>303</v>
+      </c>
+      <c r="B103" t="s">
+        <v>304</v>
+      </c>
+      <c r="C103" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>306</v>
+      </c>
+      <c r="B104" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>309</v>
+      </c>
+      <c r="B105" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>315</v>
+      </c>
+      <c r="B107" t="s">
+        <v>316</v>
+      </c>
+      <c r="C107" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>318</v>
+      </c>
+      <c r="B108" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>321</v>
+      </c>
+      <c r="B109" t="s">
+        <v>322</v>
+      </c>
+      <c r="C109" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>324</v>
+      </c>
+      <c r="B110" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>327</v>
+      </c>
+      <c r="B111" t="s">
+        <v>328</v>
+      </c>
+      <c r="C111" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>330</v>
+      </c>
+      <c r="B112" t="s">
+        <v>331</v>
+      </c>
+      <c r="C112" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>333</v>
+      </c>
+      <c r="B113" t="s">
+        <v>334</v>
+      </c>
+      <c r="C113" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>336</v>
+      </c>
+      <c r="B114" t="s">
+        <v>337</v>
+      </c>
+      <c r="C114" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>339</v>
+      </c>
+      <c r="B115" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>342</v>
+      </c>
+      <c r="B116" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>345</v>
+      </c>
+      <c r="B117" t="s">
+        <v>346</v>
+      </c>
+      <c r="C117" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>348</v>
+      </c>
+      <c r="B118" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>351</v>
+      </c>
+      <c r="B119" t="s">
+        <v>352</v>
+      </c>
+      <c r="C119" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>354</v>
+      </c>
+      <c r="B120" t="s">
+        <v>355</v>
+      </c>
+      <c r="C120" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>357</v>
+      </c>
+      <c r="B121" t="s">
+        <v>358</v>
+      </c>
+      <c r="C121" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>360</v>
+      </c>
+      <c r="B122" t="s">
+        <v>361</v>
+      </c>
+      <c r="C122" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>363</v>
+      </c>
+      <c r="B123" t="s">
+        <v>364</v>
+      </c>
+      <c r="C123" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>366</v>
+      </c>
+      <c r="B124" t="s">
+        <v>367</v>
+      </c>
+      <c r="C124" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>369</v>
+      </c>
+      <c r="B125" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>372</v>
+      </c>
+      <c r="B126" t="s">
+        <v>373</v>
+      </c>
+      <c r="C126" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>375</v>
+      </c>
+      <c r="B127" t="s">
+        <v>376</v>
+      </c>
+      <c r="C127" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>378</v>
+      </c>
+      <c r="B128" t="s">
+        <v>379</v>
+      </c>
+      <c r="C128" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>381</v>
+      </c>
+      <c r="B129" t="s">
+        <v>382</v>
+      </c>
+      <c r="C129" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>384</v>
+      </c>
+      <c r="B130" t="s">
+        <v>385</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>386</v>
+      </c>
+      <c r="B131" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>389</v>
+      </c>
+      <c r="B132" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>392</v>
+      </c>
+      <c r="B133" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>395</v>
+      </c>
+      <c r="B134" t="s">
+        <v>396</v>
+      </c>
+      <c r="C134" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>398</v>
+      </c>
+      <c r="B135" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>401</v>
+      </c>
+      <c r="B136" t="s">
+        <v>402</v>
+      </c>
+      <c r="C136" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>404</v>
+      </c>
+      <c r="B137" t="s">
+        <v>405</v>
+      </c>
+      <c r="C137" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>407</v>
+      </c>
+      <c r="B138" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>410</v>
+      </c>
+      <c r="B139" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>413</v>
+      </c>
+      <c r="B140" t="s">
+        <v>414</v>
+      </c>
+      <c r="C140" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>416</v>
+      </c>
+      <c r="B141" t="s">
+        <v>417</v>
+      </c>
+      <c r="C141" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>419</v>
+      </c>
+      <c r="B142" t="s">
+        <v>420</v>
+      </c>
+      <c r="C142" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>422</v>
+      </c>
+      <c r="B143" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>425</v>
+      </c>
+      <c r="B144" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>428</v>
+      </c>
+      <c r="B145" t="s">
+        <v>429</v>
+      </c>
+      <c r="C145" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>431</v>
+      </c>
+      <c r="B146" t="s">
+        <v>432</v>
+      </c>
+      <c r="C146" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>434</v>
+      </c>
+      <c r="B147" t="s">
+        <v>435</v>
+      </c>
+      <c r="C147" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>437</v>
+      </c>
+      <c r="B148" t="s">
+        <v>438</v>
+      </c>
+      <c r="C148" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>440</v>
+      </c>
+      <c r="B149" t="s">
+        <v>441</v>
+      </c>
+      <c r="C149" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>443</v>
+      </c>
+      <c r="B150" t="s">
+        <v>444</v>
+      </c>
+      <c r="C150" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>446</v>
+      </c>
+      <c r="B151" t="s">
+        <v>447</v>
+      </c>
+      <c r="C151" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>449</v>
+      </c>
+      <c r="B152" t="s">
+        <v>450</v>
+      </c>
+      <c r="C152" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>452</v>
+      </c>
+      <c r="B153" t="s">
+        <v>453</v>
+      </c>
+      <c r="C153" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>455</v>
+      </c>
+      <c r="B154" t="s">
+        <v>456</v>
+      </c>
+      <c r="C154" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>458</v>
+      </c>
+      <c r="B155" t="s">
+        <v>459</v>
+      </c>
+      <c r="C155" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>461</v>
+      </c>
+      <c r="B156" t="s">
+        <v>462</v>
+      </c>
+      <c r="C156" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>464</v>
+      </c>
+      <c r="B157" t="s">
+        <v>465</v>
+      </c>
+      <c r="C157" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>467</v>
+      </c>
+      <c r="B158" t="s">
+        <v>468</v>
+      </c>
+      <c r="C158" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>470</v>
+      </c>
+      <c r="B159" t="s">
+        <v>471</v>
+      </c>
+      <c r="C159" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>473</v>
+      </c>
+      <c r="B160" t="s">
+        <v>474</v>
+      </c>
+      <c r="C160" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>476</v>
+      </c>
+      <c r="B161" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>479</v>
+      </c>
+      <c r="B162" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>482</v>
+      </c>
+      <c r="B163" t="s">
+        <v>483</v>
+      </c>
+      <c r="C163" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>485</v>
+      </c>
+      <c r="B164" t="s">
+        <v>486</v>
+      </c>
+      <c r="C164" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>488</v>
+      </c>
+      <c r="B165" t="s">
+        <v>489</v>
+      </c>
+      <c r="C165" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>491</v>
+      </c>
+      <c r="B166" t="s">
+        <v>492</v>
+      </c>
+      <c r="C166" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>494</v>
+      </c>
+      <c r="B167" t="s">
+        <v>495</v>
+      </c>
+      <c r="C167" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>497</v>
+      </c>
+      <c r="B168" t="s">
+        <v>498</v>
+      </c>
+      <c r="C168" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>500</v>
+      </c>
+      <c r="B169" t="s">
+        <v>501</v>
+      </c>
+      <c r="C169" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>503</v>
+      </c>
+      <c r="B170" t="s">
+        <v>504</v>
+      </c>
+      <c r="C170" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>506</v>
+      </c>
+      <c r="B171" t="s">
+        <v>507</v>
+      </c>
+      <c r="C171" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>509</v>
+      </c>
+      <c r="B172" t="s">
+        <v>510</v>
+      </c>
+      <c r="C172" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>512</v>
+      </c>
+      <c r="B173" t="s">
+        <v>513</v>
+      </c>
+      <c r="C173" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>515</v>
+      </c>
+      <c r="B174" t="s">
+        <v>516</v>
+      </c>
+      <c r="C174" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>518</v>
+      </c>
+      <c r="B175" t="s">
+        <v>519</v>
+      </c>
+      <c r="C175" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>521</v>
+      </c>
+      <c r="B176" t="s">
+        <v>522</v>
+      </c>
+      <c r="C176" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>524</v>
+      </c>
+      <c r="B177" t="s">
+        <v>525</v>
+      </c>
+      <c r="C177" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>527</v>
+      </c>
+      <c r="B178" t="s">
+        <v>528</v>
+      </c>
+      <c r="C178" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>530</v>
+      </c>
+      <c r="B179" t="s">
+        <v>531</v>
+      </c>
+      <c r="C179" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>533</v>
+      </c>
+      <c r="B180" t="s">
+        <v>534</v>
+      </c>
+      <c r="C180" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>536</v>
+      </c>
+      <c r="B181" t="s">
+        <v>537</v>
+      </c>
+      <c r="C181" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>539</v>
+      </c>
+      <c r="B182" t="s">
+        <v>540</v>
+      </c>
+      <c r="C182" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>542</v>
+      </c>
+      <c r="B183" t="s">
+        <v>543</v>
+      </c>
+      <c r="C183" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>545</v>
+      </c>
+      <c r="B184" t="s">
+        <v>546</v>
+      </c>
+      <c r="C184" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>548</v>
+      </c>
+      <c r="B185" t="s">
+        <v>549</v>
+      </c>
+      <c r="C185" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>551</v>
+      </c>
+      <c r="B186" t="s">
+        <v>552</v>
+      </c>
+      <c r="C186" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>554</v>
+      </c>
+      <c r="B187" t="s">
+        <v>555</v>
+      </c>
+      <c r="C187" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>557</v>
+      </c>
+      <c r="B188" t="s">
+        <v>558</v>
+      </c>
+      <c r="C188" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>560</v>
+      </c>
+      <c r="B189" t="s">
+        <v>561</v>
+      </c>
+      <c r="C189" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>563</v>
+      </c>
+      <c r="B190" t="s">
+        <v>564</v>
+      </c>
+      <c r="C190" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>566</v>
+      </c>
+      <c r="B191" t="s">
+        <v>567</v>
+      </c>
+      <c r="C191" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>569</v>
+      </c>
+      <c r="B192" t="s">
+        <v>570</v>
+      </c>
+      <c r="C192" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>572</v>
+      </c>
+      <c r="B193" t="s">
+        <v>573</v>
+      </c>
+      <c r="C193" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>575</v>
+      </c>
+      <c r="B194" t="s">
+        <v>576</v>
+      </c>
+      <c r="C194" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>578</v>
+      </c>
+      <c r="B195" t="s">
+        <v>579</v>
+      </c>
+      <c r="C195" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>581</v>
+      </c>
+      <c r="B196" t="s">
+        <v>582</v>
+      </c>
+      <c r="C196" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>584</v>
+      </c>
+      <c r="B197" t="s">
+        <v>585</v>
+      </c>
+      <c r="C197" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>587</v>
+      </c>
+      <c r="B198" t="s">
+        <v>588</v>
+      </c>
+      <c r="C198" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>590</v>
+      </c>
+      <c r="B199" t="s">
+        <v>591</v>
+      </c>
+      <c r="C199" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>593</v>
+      </c>
+      <c r="B200" t="s">
+        <v>594</v>
+      </c>
+      <c r="C200" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>596</v>
+      </c>
+      <c r="B201" t="s">
+        <v>597</v>
+      </c>
+      <c r="C201" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>599</v>
+      </c>
+      <c r="B202" t="s">
+        <v>600</v>
+      </c>
+      <c r="C202" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>602</v>
+      </c>
+      <c r="B203" t="s">
+        <v>603</v>
+      </c>
+      <c r="C203" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>605</v>
+      </c>
+      <c r="B204" t="s">
+        <v>606</v>
+      </c>
+      <c r="C204" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>608</v>
+      </c>
+      <c r="B205" t="s">
+        <v>609</v>
+      </c>
+      <c r="C205" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>611</v>
+      </c>
+      <c r="B206" t="s">
+        <v>612</v>
+      </c>
+      <c r="C206" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>614</v>
+      </c>
+      <c r="B207" t="s">
+        <v>615</v>
+      </c>
+      <c r="C207" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>617</v>
+      </c>
+      <c r="B208" t="s">
+        <v>618</v>
+      </c>
+      <c r="C208" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>620</v>
+      </c>
+      <c r="B209" t="s">
+        <v>621</v>
+      </c>
+      <c r="C209" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>623</v>
+      </c>
+      <c r="B210" t="s">
+        <v>624</v>
+      </c>
+      <c r="C210" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>626</v>
+      </c>
+      <c r="B211" t="s">
+        <v>627</v>
+      </c>
+      <c r="C211" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>629</v>
+      </c>
+      <c r="B212" t="s">
+        <v>630</v>
+      </c>
+      <c r="C212" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>632</v>
+      </c>
+      <c r="B213" t="s">
+        <v>633</v>
+      </c>
+      <c r="C213" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>635</v>
+      </c>
+      <c r="B214" t="s">
+        <v>636</v>
+      </c>
+      <c r="C214" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>638</v>
+      </c>
+      <c r="B215" t="s">
+        <v>639</v>
+      </c>
+      <c r="C215" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>641</v>
+      </c>
+      <c r="B216" t="s">
+        <v>642</v>
+      </c>
+      <c r="C216" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>644</v>
+      </c>
+      <c r="B217" t="s">
+        <v>645</v>
+      </c>
+      <c r="C217" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>647</v>
+      </c>
+      <c r="B218" t="s">
+        <v>648</v>
+      </c>
+      <c r="C218" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>650</v>
+      </c>
+      <c r="B219" t="s">
+        <v>651</v>
+      </c>
+      <c r="C219" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>653</v>
+      </c>
+      <c r="B220" t="s">
+        <v>654</v>
+      </c>
+      <c r="C220" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>656</v>
+      </c>
+      <c r="B221" t="s">
+        <v>657</v>
+      </c>
+      <c r="C221" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>659</v>
+      </c>
+      <c r="B222" t="s">
+        <v>660</v>
+      </c>
+      <c r="C222" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>662</v>
+      </c>
+      <c r="B223" t="s">
+        <v>663</v>
+      </c>
+      <c r="C223" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>665</v>
+      </c>
+      <c r="B224" t="s">
+        <v>666</v>
+      </c>
+      <c r="C224" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>668</v>
+      </c>
+      <c r="B225" t="s">
+        <v>669</v>
+      </c>
+      <c r="C225" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>671</v>
+      </c>
+      <c r="B226" t="s">
+        <v>672</v>
+      </c>
+      <c r="C226" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>674</v>
+      </c>
+      <c r="B227" t="s">
+        <v>675</v>
+      </c>
+      <c r="C227" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>677</v>
+      </c>
+      <c r="B228" t="s">
+        <v>678</v>
+      </c>
+      <c r="C228" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>680</v>
+      </c>
+      <c r="B229" t="s">
+        <v>681</v>
+      </c>
+      <c r="C229" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>683</v>
+      </c>
+      <c r="B230" t="s">
+        <v>684</v>
+      </c>
+      <c r="C230" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>686</v>
+      </c>
+      <c r="B231" t="s">
+        <v>687</v>
+      </c>
+      <c r="C231" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>689</v>
+      </c>
+      <c r="B232" t="s">
+        <v>690</v>
+      </c>
+      <c r="C232" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>692</v>
+      </c>
+      <c r="B233" t="s">
+        <v>693</v>
+      </c>
+      <c r="C233" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>695</v>
+      </c>
+      <c r="B234" t="s">
+        <v>696</v>
+      </c>
+      <c r="C234" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>698</v>
+      </c>
+      <c r="B235" t="s">
+        <v>699</v>
+      </c>
+      <c r="C235" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>701</v>
+      </c>
+      <c r="B236" t="s">
+        <v>702</v>
+      </c>
+      <c r="C236" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>